--- a/EXCEL_OUPUT/Asahi Diamond Industrial Australia Pty Limited 2021 Annual Report.xlsx
+++ b/EXCEL_OUPUT/Asahi Diamond Industrial Australia Pty Limited 2021 Annual Report.xlsx
@@ -59,7 +59,7 @@
     <t>lE</t>
   </si>
   <si>
-    <t>of a SIRX S</t>
+    <t>S of a SIRX</t>
   </si>
   <si>
     <t>S</t>
